--- a/biology/Zoologie/Elasmus/Elasmus.xlsx
+++ b/biology/Zoologie/Elasmus/Elasmus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elasmus est un genre d'hyménoptères de la famille des Eulophidae qui comprend environ 200 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant les études moléculaires publiées en 2000 de Gauthier et al., ce genre constituait la famille monotypique des Elasmidae.
 </t>
@@ -542,7 +556,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce genre peu commun, mesure de 1 à 2 mm, le corps comprimé latéralement avec des ailes longues et étroites. 
 Ils ont rarement un éclat métallique, noir à reflets bleus. 
@@ -578,7 +594,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des ectoparasites de Lépidoptères, de Polistes (Elasmus polistis), ils sont souvent hyperparasites.
 </t>
@@ -609,9 +627,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (19 octobre 2019)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (19 octobre 2019) :
 Elasmus acuminatus Girault, 1915
 Elasmus alami Verma &amp; Hayat, 2002
 Elasmus albicoxa Howard, 1885
